--- a/output/clean_data/stock_landings.xlsx
+++ b/output/clean_data/stock_landings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5932" uniqueCount="1929">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5932" uniqueCount="1934">
   <si>
     <t>Area</t>
   </si>
@@ -5333,7 +5333,7 @@
     <t xml:space="preserve">MAR </t>
   </si>
   <si>
-    <t>Kerguelan Plateau (Willaims Ridge) and</t>
+    <t>Kerguelan Plateau (Willaims Ridge) and Del Cano Rise</t>
   </si>
   <si>
     <t>SEAFO: SE Atlantic</t>
@@ -5603,52 +5603,67 @@
     <t>Fraser River</t>
   </si>
   <si>
-    <t>Pacific Eastern Central</t>
-  </si>
-  <si>
-    <t>Pacific Southeast</t>
-  </si>
-  <si>
-    <t>Pacific Central</t>
-  </si>
-  <si>
-    <t>Indian Ocean, Eastern</t>
-  </si>
-  <si>
-    <t>Indian Ocean, Western</t>
-  </si>
-  <si>
-    <t>Pacific Western Central</t>
+    <t>Pacific Eastern Central -  Area(s) 77</t>
+  </si>
+  <si>
+    <t>Pacific Southeast -  Area(s) 87</t>
+  </si>
+  <si>
+    <t>Pacific Central -  Area(s) 71, 77</t>
+  </si>
+  <si>
+    <t>Indian Ocean -  Area(s) 51</t>
+  </si>
+  <si>
+    <t>Indian Ocean -  Area(s) 57</t>
+  </si>
+  <si>
+    <t>Pacific Western Central -  Area(s) 71</t>
   </si>
   <si>
     <t>Global/All areas</t>
   </si>
   <si>
-    <t>Mediterranean and Black Sea</t>
-  </si>
-  <si>
-    <t>Atlantic North</t>
-  </si>
-  <si>
-    <t>Atlantic South</t>
-  </si>
-  <si>
-    <t>Pacific North</t>
-  </si>
-  <si>
-    <t>Pacific South</t>
-  </si>
-  <si>
-    <t>Atlantic Northeast</t>
-  </si>
-  <si>
-    <t>Atlantic Northwest</t>
-  </si>
-  <si>
-    <t>Atlantic Southern</t>
-  </si>
-  <si>
-    <t>Pacific Southern</t>
+    <t>Mediterranean and Black Sea -  Area(s) 37</t>
+  </si>
+  <si>
+    <t>Atlantic North -  Area(s) 27, 21</t>
+  </si>
+  <si>
+    <t>Atlantic South -  Area(s) 41, 47</t>
+  </si>
+  <si>
+    <t>Indian Ocean -  Area(s) 57, 51</t>
+  </si>
+  <si>
+    <t>Pacific North -  Area(s) 61, 67</t>
+  </si>
+  <si>
+    <t>Pacific South -  Area(s) 81, 87</t>
+  </si>
+  <si>
+    <t>Atlantic Northeast -  Area(s) 27</t>
+  </si>
+  <si>
+    <t>Atlantic Northwest -  Area(s) 21</t>
+  </si>
+  <si>
+    <t>Atlantic Southern -  Area(s) 41, 47</t>
+  </si>
+  <si>
+    <t>Pacific Southern -  Area(s) 81, 87</t>
+  </si>
+  <si>
+    <t>Atlantic North -  Area(s) 34</t>
+  </si>
+  <si>
+    <t>Atlantic South -  Area(s) 27</t>
+  </si>
+  <si>
+    <t>Pacific North -  Area(s) 77</t>
+  </si>
+  <si>
+    <t>Pacific South -  Area(s) 87</t>
   </si>
   <si>
     <t>Eastern Atlantic Ocean stock</t>
@@ -7398,7 +7413,7 @@
         <v>1091</v>
       </c>
       <c r="D87" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E87">
         <v>16837.431</v>
@@ -8199,7 +8214,7 @@
         <v>1040</v>
       </c>
       <c r="D144" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E144">
         <v>9929.767</v>
@@ -9882,7 +9897,7 @@
         <v>1221</v>
       </c>
       <c r="D264" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E264">
         <v>1756.759655172414</v>
@@ -9899,7 +9914,7 @@
         <v>1222</v>
       </c>
       <c r="D265" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E265">
         <v>1756.759655172414</v>
@@ -9916,7 +9931,7 @@
         <v>1223</v>
       </c>
       <c r="D266" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E266">
         <v>1756.759655172414</v>
@@ -10703,7 +10718,7 @@
         <v>1262</v>
       </c>
       <c r="D322" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E322">
         <v>6496.871875</v>
@@ -10720,7 +10735,7 @@
         <v>1263</v>
       </c>
       <c r="D323" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E323">
         <v>4961.247613636364</v>
@@ -10737,7 +10752,7 @@
         <v>1264</v>
       </c>
       <c r="D324" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E324">
         <v>10040.62017045455</v>
@@ -10754,7 +10769,7 @@
         <v>1265</v>
       </c>
       <c r="D325" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E325">
         <v>10040.62017045455</v>
@@ -10771,7 +10786,7 @@
         <v>1266</v>
       </c>
       <c r="D326" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E326">
         <v>6496.871875</v>
@@ -10788,7 +10803,7 @@
         <v>1267</v>
       </c>
       <c r="D327" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E327">
         <v>4961.247613636364</v>
@@ -10805,7 +10820,7 @@
         <v>1268</v>
       </c>
       <c r="D328" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E328">
         <v>6496.871875</v>
@@ -10822,7 +10837,7 @@
         <v>1269</v>
       </c>
       <c r="D329" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E329">
         <v>6496.871875</v>
@@ -10839,7 +10854,7 @@
         <v>1270</v>
       </c>
       <c r="D330" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E330">
         <v>6496.871875</v>
@@ -10856,7 +10871,7 @@
         <v>1271</v>
       </c>
       <c r="D331" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E331">
         <v>10040.62017045455</v>
@@ -10873,7 +10888,7 @@
         <v>1272</v>
       </c>
       <c r="D332" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E332">
         <v>4961.247613636364</v>
@@ -10960,7 +10975,7 @@
         <v>1277</v>
       </c>
       <c r="D338" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E338">
         <v>4961.247613636364</v>
@@ -11103,7 +11118,7 @@
         <v>1266</v>
       </c>
       <c r="D348" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E348">
         <v>4961.247613636364</v>
@@ -11120,7 +11135,7 @@
         <v>1282</v>
       </c>
       <c r="D349" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E349">
         <v>10040.62017045455</v>
@@ -11235,7 +11250,7 @@
         <v>1286</v>
       </c>
       <c r="D357" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E357">
         <v>6496.871875</v>
@@ -12218,7 +12233,7 @@
         <v>1304</v>
       </c>
       <c r="D427" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E427">
         <v>34479.268828125</v>
@@ -12235,7 +12250,7 @@
         <v>1305</v>
       </c>
       <c r="D428" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E428">
         <v>34479.268828125</v>
@@ -12252,7 +12267,7 @@
         <v>1306</v>
       </c>
       <c r="D429" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E429">
         <v>38108.665546875</v>
@@ -12269,7 +12284,7 @@
         <v>1307</v>
       </c>
       <c r="D430" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E430">
         <v>125214.186796875</v>
@@ -15214,7 +15229,7 @@
         <v>1379</v>
       </c>
       <c r="D638" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E638">
         <v>4479.555272727272</v>
@@ -15287,7 +15302,7 @@
         <v>1380</v>
       </c>
       <c r="D643" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E643">
         <v>4479.555272727272</v>
@@ -15304,7 +15319,7 @@
         <v>1381</v>
       </c>
       <c r="D644" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E644">
         <v>1804.265318181818</v>
@@ -15321,7 +15336,7 @@
         <v>1382</v>
       </c>
       <c r="D645" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E645">
         <v>1804.265318181818</v>
@@ -15708,7 +15723,7 @@
         <v>1386</v>
       </c>
       <c r="D672" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E672">
         <v>2699.477793103448</v>
@@ -15938,7 +15953,7 @@
         <v>1388</v>
       </c>
       <c r="D688" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E688">
         <v>2699.477793103448</v>
@@ -15955,7 +15970,7 @@
         <v>1388</v>
       </c>
       <c r="D689" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E689">
         <v>3514.945043103448</v>
@@ -16042,7 +16057,7 @@
         <v>1398</v>
       </c>
       <c r="D695" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E695">
         <v>3514.945043103448</v>
@@ -16171,7 +16186,7 @@
         <v>1388</v>
       </c>
       <c r="D704" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E704">
         <v>2699.477793103448</v>
@@ -16202,7 +16217,7 @@
         <v>1388</v>
       </c>
       <c r="D706" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E706">
         <v>2699.477793103448</v>
@@ -16275,7 +16290,7 @@
         <v>1387</v>
       </c>
       <c r="D711" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E711">
         <v>5061.520862068965</v>
@@ -16438,7 +16453,7 @@
         <v>1395</v>
       </c>
       <c r="D722" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E722">
         <v>3514.945043103448</v>
@@ -16455,7 +16470,7 @@
         <v>1396</v>
       </c>
       <c r="D723" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E723">
         <v>2699.477793103448</v>
@@ -16570,7 +16585,7 @@
         <v>1404</v>
       </c>
       <c r="D731" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E731">
         <v>3514.945043103448</v>
@@ -16881,7 +16896,7 @@
         <v>1406</v>
       </c>
       <c r="D753" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E753">
         <v>1617.837970149254</v>
@@ -16898,7 +16913,7 @@
         <v>1406</v>
       </c>
       <c r="D754" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E754">
         <v>1365.707377398721</v>
@@ -16915,7 +16930,7 @@
         <v>1406</v>
       </c>
       <c r="D755" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E755">
         <v>2328.706169154229</v>
@@ -16932,7 +16947,7 @@
         <v>1407</v>
       </c>
       <c r="D756" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E756">
         <v>1365.707377398721</v>
@@ -16994,7 +17009,7 @@
         <v>1406</v>
       </c>
       <c r="D760" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E760">
         <v>1617.837970149254</v>
@@ -17039,7 +17054,7 @@
         <v>1407</v>
       </c>
       <c r="D763" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E763">
         <v>1365.707377398721</v>
@@ -17241,7 +17256,7 @@
         <v>1407</v>
       </c>
       <c r="D777" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E777">
         <v>1365.707377398721</v>
@@ -17300,7 +17315,7 @@
         <v>1406</v>
       </c>
       <c r="D781" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E781">
         <v>1617.837970149254</v>
@@ -17373,7 +17388,7 @@
         <v>1406</v>
       </c>
       <c r="D786" t="s">
-        <v>1890</v>
+        <v>1895</v>
       </c>
       <c r="E786">
         <v>50</v>
@@ -17390,7 +17405,7 @@
         <v>1406</v>
       </c>
       <c r="D787" t="s">
-        <v>1890</v>
+        <v>1895</v>
       </c>
       <c r="E787">
         <v>50</v>
@@ -17407,7 +17422,7 @@
         <v>1407</v>
       </c>
       <c r="D788" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E788">
         <v>2328.706169154229</v>
@@ -17438,7 +17453,7 @@
         <v>1407</v>
       </c>
       <c r="D790" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E790">
         <v>1365.707377398721</v>
@@ -17469,7 +17484,7 @@
         <v>1407</v>
       </c>
       <c r="D792" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E792">
         <v>2328.706169154229</v>
@@ -17486,7 +17501,7 @@
         <v>1407</v>
       </c>
       <c r="D793" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E793">
         <v>1617.837970149254</v>
@@ -17680,7 +17695,7 @@
         <v>1407</v>
       </c>
       <c r="D806" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E806">
         <v>1365.707377398721</v>
@@ -17697,7 +17712,7 @@
         <v>1406</v>
       </c>
       <c r="D807" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E807">
         <v>1365.707377398721</v>
@@ -17728,7 +17743,7 @@
         <v>1406</v>
       </c>
       <c r="D809" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E809">
         <v>1617.837970149254</v>
@@ -18031,7 +18046,7 @@
         <v>1412</v>
       </c>
       <c r="D830" t="s">
-        <v>1891</v>
+        <v>1896</v>
       </c>
       <c r="E830">
         <v>5000</v>
@@ -18048,7 +18063,7 @@
         <v>1415</v>
       </c>
       <c r="D831" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E831">
         <v>18154.96519699812</v>
@@ -18205,7 +18220,7 @@
         <v>1422</v>
       </c>
       <c r="D842" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E842">
         <v>18154.96519699812</v>
@@ -18222,7 +18237,7 @@
         <v>1423</v>
       </c>
       <c r="D843" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E843">
         <v>23796.50810118927</v>
@@ -18239,7 +18254,7 @@
         <v>1413</v>
       </c>
       <c r="D844" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E844">
         <v>20272.16</v>
@@ -18340,7 +18355,7 @@
         <v>1411</v>
       </c>
       <c r="D851" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E851">
         <v>23796.50810118927</v>
@@ -18612,7 +18627,7 @@
         <v>1411</v>
       </c>
       <c r="D870" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E870">
         <v>18154.96519699812</v>
@@ -18643,7 +18658,7 @@
         <v>1416</v>
       </c>
       <c r="D872" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E872">
         <v>18154.96519699812</v>
@@ -18688,7 +18703,7 @@
         <v>1411</v>
       </c>
       <c r="D875" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E875">
         <v>18154.96519699812</v>
@@ -18705,7 +18720,7 @@
         <v>1426</v>
       </c>
       <c r="D876" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E876">
         <v>23796.50810118927</v>
@@ -18722,7 +18737,7 @@
         <v>1420</v>
       </c>
       <c r="D877" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E877">
         <v>24555.04888765706</v>
@@ -18753,7 +18768,7 @@
         <v>1411</v>
       </c>
       <c r="D879" t="s">
-        <v>1893</v>
+        <v>1898</v>
       </c>
       <c r="E879">
         <v>95.2</v>
@@ -18798,7 +18813,7 @@
         <v>1413</v>
       </c>
       <c r="D882" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E882">
         <v>24555.04888765706</v>
@@ -18955,7 +18970,7 @@
         <v>1421</v>
       </c>
       <c r="D893" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E893">
         <v>23796.50810118927</v>
@@ -19028,7 +19043,7 @@
         <v>1411</v>
       </c>
       <c r="D898" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E898">
         <v>18154.96519699812</v>
@@ -19339,7 +19354,7 @@
         <v>1437</v>
       </c>
       <c r="D920" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E920">
         <v>23796.50810118927</v>
@@ -19541,7 +19556,7 @@
         <v>1412</v>
       </c>
       <c r="D934" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E934">
         <v>77.5</v>
@@ -19558,7 +19573,7 @@
         <v>1434</v>
       </c>
       <c r="D935" t="s">
-        <v>1894</v>
+        <v>1899</v>
       </c>
       <c r="E935">
         <v>77.5</v>
@@ -19970,7 +19985,7 @@
         <v>1411</v>
       </c>
       <c r="D964" t="s">
-        <v>1895</v>
+        <v>1900</v>
       </c>
       <c r="E964">
         <v>2368</v>
@@ -20043,7 +20058,7 @@
         <v>1415</v>
       </c>
       <c r="D969" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E969">
         <v>2579.6</v>
@@ -20060,7 +20075,7 @@
         <v>1413</v>
       </c>
       <c r="D970" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E970">
         <v>20272.16</v>
@@ -20077,7 +20092,7 @@
         <v>1433</v>
       </c>
       <c r="D971" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E971">
         <v>57.33333</v>
@@ -20122,7 +20137,7 @@
         <v>1418</v>
       </c>
       <c r="D974" t="s">
-        <v>1898</v>
+        <v>1903</v>
       </c>
       <c r="E974">
         <v>438.6</v>
@@ -20153,7 +20168,7 @@
         <v>1427</v>
       </c>
       <c r="D976" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E976">
         <v>18154.96519699812</v>
@@ -20347,7 +20362,7 @@
         <v>1415</v>
       </c>
       <c r="D989" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E989">
         <v>510.75</v>
@@ -20364,7 +20379,7 @@
         <v>1437</v>
       </c>
       <c r="D990" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E990">
         <v>510.75</v>
@@ -20970,7 +20985,7 @@
         <v>1418</v>
       </c>
       <c r="D1032" t="s">
-        <v>1900</v>
+        <v>1905</v>
       </c>
       <c r="E1032">
         <v>1333.8</v>
@@ -21422,7 +21437,7 @@
         <v>1442</v>
       </c>
       <c r="D1063" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1063">
         <v>24555.04888765706</v>
@@ -21439,7 +21454,7 @@
         <v>1443</v>
       </c>
       <c r="D1064" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1064">
         <v>23796.50810118927</v>
@@ -21456,7 +21471,7 @@
         <v>1437</v>
       </c>
       <c r="D1065" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1065">
         <v>18154.96519699812</v>
@@ -21473,7 +21488,7 @@
         <v>1418</v>
       </c>
       <c r="D1066" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1066">
         <v>18154.96519699812</v>
@@ -21518,7 +21533,7 @@
         <v>1421</v>
       </c>
       <c r="D1069" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1069">
         <v>20272.16</v>
@@ -21729,7 +21744,7 @@
         <v>1415</v>
       </c>
       <c r="D1083" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="E1083">
         <v>81.06667</v>
@@ -21760,7 +21775,7 @@
         <v>1415</v>
       </c>
       <c r="D1085" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="E1085">
         <v>81.06667</v>
@@ -21791,7 +21806,7 @@
         <v>1415</v>
       </c>
       <c r="D1087" t="s">
-        <v>1901</v>
+        <v>1906</v>
       </c>
       <c r="E1087">
         <v>81.06667</v>
@@ -21965,7 +21980,7 @@
         <v>1415</v>
       </c>
       <c r="D1099" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E1099">
         <v>57.33333</v>
@@ -21982,7 +21997,7 @@
         <v>1433</v>
       </c>
       <c r="D1100" t="s">
-        <v>1897</v>
+        <v>1902</v>
       </c>
       <c r="E1100">
         <v>57.33333</v>
@@ -22083,7 +22098,7 @@
         <v>1415</v>
       </c>
       <c r="D1107" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1107">
         <v>20272.16</v>
@@ -22100,7 +22115,7 @@
         <v>1433</v>
       </c>
       <c r="D1108" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1108">
         <v>20272.16</v>
@@ -22117,7 +22132,7 @@
         <v>1437</v>
       </c>
       <c r="D1109" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1109">
         <v>20272.16</v>
@@ -22473,7 +22488,7 @@
         <v>1411</v>
       </c>
       <c r="D1134" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1134">
         <v>23796.50810118927</v>
@@ -22712,7 +22727,7 @@
         <v>1425</v>
       </c>
       <c r="D1150" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1150">
         <v>18154.96519699812</v>
@@ -22729,7 +22744,7 @@
         <v>1426</v>
       </c>
       <c r="D1151" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1151">
         <v>24555.04888765706</v>
@@ -22746,7 +22761,7 @@
         <v>1420</v>
       </c>
       <c r="D1152" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1152">
         <v>23796.50810118927</v>
@@ -22763,7 +22778,7 @@
         <v>1421</v>
       </c>
       <c r="D1153" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1153">
         <v>18154.96519699812</v>
@@ -22923,7 +22938,7 @@
         <v>1436</v>
       </c>
       <c r="D1164" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1164">
         <v>18154.96519699812</v>
@@ -23108,7 +23123,7 @@
         <v>1436</v>
       </c>
       <c r="D1177" t="s">
-        <v>1902</v>
+        <v>1907</v>
       </c>
       <c r="E1177">
         <v>602</v>
@@ -23125,7 +23140,7 @@
         <v>1435</v>
       </c>
       <c r="D1178" t="s">
-        <v>1902</v>
+        <v>1907</v>
       </c>
       <c r="E1178">
         <v>602</v>
@@ -23484,7 +23499,7 @@
         <v>1437</v>
       </c>
       <c r="D1203" t="s">
-        <v>1903</v>
+        <v>1908</v>
       </c>
       <c r="E1203">
         <v>23</v>
@@ -24236,7 +24251,7 @@
         <v>1437</v>
       </c>
       <c r="D1255" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1255">
         <v>23796.50810118927</v>
@@ -24416,7 +24431,7 @@
         <v>1419</v>
       </c>
       <c r="D1267" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="E1267">
         <v>610</v>
@@ -24433,7 +24448,7 @@
         <v>1425</v>
       </c>
       <c r="D1268" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="E1268">
         <v>610</v>
@@ -24450,7 +24465,7 @@
         <v>1426</v>
       </c>
       <c r="D1269" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="E1269">
         <v>610</v>
@@ -24467,7 +24482,7 @@
         <v>1421</v>
       </c>
       <c r="D1270" t="s">
-        <v>1904</v>
+        <v>1909</v>
       </c>
       <c r="E1270">
         <v>610</v>
@@ -24557,7 +24572,7 @@
         <v>1411</v>
       </c>
       <c r="D1276" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1276">
         <v>23796.50810118927</v>
@@ -24574,7 +24589,7 @@
         <v>1424</v>
       </c>
       <c r="D1277" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1277">
         <v>18154.96519699812</v>
@@ -24591,7 +24606,7 @@
         <v>1434</v>
       </c>
       <c r="D1278" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1278">
         <v>23796.50810118927</v>
@@ -24841,7 +24856,7 @@
         <v>1447</v>
       </c>
       <c r="D1295" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1295">
         <v>24555.04888765706</v>
@@ -24858,7 +24873,7 @@
         <v>1448</v>
       </c>
       <c r="D1296" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1296">
         <v>24555.04888765706</v>
@@ -24889,7 +24904,7 @@
         <v>1450</v>
       </c>
       <c r="D1298" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1298">
         <v>19602.69400766283</v>
@@ -24951,7 +24966,7 @@
         <v>1449</v>
       </c>
       <c r="D1302" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1302">
         <v>50448.10957854406</v>
@@ -25066,7 +25081,7 @@
         <v>1454</v>
       </c>
       <c r="D1310" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1310">
         <v>19602.69400766283</v>
@@ -25083,7 +25098,7 @@
         <v>1455</v>
       </c>
       <c r="D1311" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1311">
         <v>50448.10957854406</v>
@@ -25100,7 +25115,7 @@
         <v>1456</v>
       </c>
       <c r="D1312" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1312">
         <v>19602.69400766283</v>
@@ -25243,7 +25258,7 @@
         <v>1449</v>
       </c>
       <c r="D1322" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1322">
         <v>50448.10957854406</v>
@@ -25277,7 +25292,7 @@
         <v>1449</v>
       </c>
       <c r="D1324" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1324">
         <v>50448.10957854406</v>
@@ -25336,7 +25351,7 @@
         <v>1462</v>
       </c>
       <c r="D1328" t="s">
-        <v>1905</v>
+        <v>1910</v>
       </c>
       <c r="E1328">
         <v>158</v>
@@ -25437,7 +25452,7 @@
         <v>1458</v>
       </c>
       <c r="D1335" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1335">
         <v>21823.31168821839</v>
@@ -25454,7 +25469,7 @@
         <v>1460</v>
       </c>
       <c r="D1336" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1336">
         <v>21823.31168821839</v>
@@ -25964,7 +25979,7 @@
         <v>1457</v>
       </c>
       <c r="D1372" t="s">
-        <v>1896</v>
+        <v>1901</v>
       </c>
       <c r="E1372">
         <v>4009.8</v>
@@ -26023,7 +26038,7 @@
         <v>1457</v>
       </c>
       <c r="D1376" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1376">
         <v>21823.31168821839</v>
@@ -26068,7 +26083,7 @@
         <v>1457</v>
       </c>
       <c r="D1379" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1379">
         <v>21823.31168821839</v>
@@ -26419,7 +26434,7 @@
         <v>1461</v>
       </c>
       <c r="D1403" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1403">
         <v>50448.10957854406</v>
@@ -26436,7 +26451,7 @@
         <v>1453</v>
       </c>
       <c r="D1404" t="s">
-        <v>1906</v>
+        <v>1911</v>
       </c>
       <c r="E1404">
         <v>2526.828571</v>
@@ -26802,7 +26817,7 @@
         <v>1466</v>
       </c>
       <c r="D1428" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1428">
         <v>27990.375</v>
@@ -26819,7 +26834,7 @@
         <v>1451</v>
       </c>
       <c r="D1429" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1429">
         <v>27990.375</v>
@@ -26836,7 +26851,7 @@
         <v>1459</v>
       </c>
       <c r="D1430" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1430">
         <v>27990.375</v>
@@ -27091,7 +27106,7 @@
         <v>1453</v>
       </c>
       <c r="D1448" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1448">
         <v>50448.10957854406</v>
@@ -27178,7 +27193,7 @@
         <v>1449</v>
       </c>
       <c r="D1454" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1454">
         <v>19602.69400766283</v>
@@ -27209,7 +27224,7 @@
         <v>1461</v>
       </c>
       <c r="D1456" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1456">
         <v>21823.31168821839</v>
@@ -27226,7 +27241,7 @@
         <v>1449</v>
       </c>
       <c r="D1457" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1457">
         <v>50448.10957854406</v>
@@ -27257,7 +27272,7 @@
         <v>1450</v>
       </c>
       <c r="D1459" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1459">
         <v>21823.31168821839</v>
@@ -27451,7 +27466,7 @@
         <v>1469</v>
       </c>
       <c r="D1472" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E1472">
         <v>14581</v>
@@ -27482,7 +27497,7 @@
         <v>1457</v>
       </c>
       <c r="D1474" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1474">
         <v>21823.31168821839</v>
@@ -27709,7 +27724,7 @@
         <v>1475</v>
       </c>
       <c r="D1490" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1490">
         <v>19602.69400766283</v>
@@ -27754,7 +27769,7 @@
         <v>1453</v>
       </c>
       <c r="D1493" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1493">
         <v>19602.69400766283</v>
@@ -27925,7 +27940,7 @@
         <v>1457</v>
       </c>
       <c r="D1505" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="E1505">
         <v>27822.92727</v>
@@ -27942,7 +27957,7 @@
         <v>1462</v>
       </c>
       <c r="D1506" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="E1506">
         <v>27822.92727</v>
@@ -27959,7 +27974,7 @@
         <v>1469</v>
       </c>
       <c r="D1507" t="s">
-        <v>1908</v>
+        <v>1913</v>
       </c>
       <c r="E1507">
         <v>27822.92727</v>
@@ -28346,7 +28361,7 @@
         <v>1466</v>
       </c>
       <c r="D1534" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1534">
         <v>50448.10957854406</v>
@@ -28391,7 +28406,7 @@
         <v>1457</v>
       </c>
       <c r="D1537" t="s">
-        <v>1909</v>
+        <v>1914</v>
       </c>
       <c r="E1537">
         <v>4307</v>
@@ -28422,7 +28437,7 @@
         <v>1449</v>
       </c>
       <c r="D1539" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1539">
         <v>19602.69400766283</v>
@@ -28467,7 +28482,7 @@
         <v>1456</v>
       </c>
       <c r="D1542" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1542">
         <v>21823.31168821839</v>
@@ -28588,7 +28603,7 @@
         <v>1467</v>
       </c>
       <c r="D1550" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1550">
         <v>50448.10957854406</v>
@@ -28773,7 +28788,7 @@
         <v>1475</v>
       </c>
       <c r="D1563" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1563">
         <v>19602.69400766283</v>
@@ -28790,7 +28805,7 @@
         <v>1465</v>
       </c>
       <c r="D1564" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1564">
         <v>50448.10957854406</v>
@@ -28973,7 +28988,7 @@
         <v>1472</v>
       </c>
       <c r="D1576" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1576">
         <v>19602.69400766283</v>
@@ -28990,7 +29005,7 @@
         <v>1473</v>
       </c>
       <c r="D1577" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1577">
         <v>21823.31168821839</v>
@@ -29007,7 +29022,7 @@
         <v>1474</v>
       </c>
       <c r="D1578" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1578">
         <v>21823.31168821839</v>
@@ -29092,7 +29107,7 @@
         <v>1472</v>
       </c>
       <c r="D1583" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1583">
         <v>21823.31168821839</v>
@@ -29109,7 +29124,7 @@
         <v>1473</v>
       </c>
       <c r="D1584" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1584">
         <v>21823.31168821839</v>
@@ -29126,7 +29141,7 @@
         <v>1474</v>
       </c>
       <c r="D1585" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1585">
         <v>50448.10957854406</v>
@@ -29143,7 +29158,7 @@
         <v>1472</v>
       </c>
       <c r="D1586" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1586">
         <v>19602.69400766283</v>
@@ -29160,7 +29175,7 @@
         <v>1473</v>
       </c>
       <c r="D1587" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1587">
         <v>21823.31168821839</v>
@@ -29177,7 +29192,7 @@
         <v>1474</v>
       </c>
       <c r="D1588" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1588">
         <v>50448.10957854406</v>
@@ -29194,7 +29209,7 @@
         <v>1472</v>
       </c>
       <c r="D1589" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1589">
         <v>50448.10957854406</v>
@@ -29211,7 +29226,7 @@
         <v>1473</v>
       </c>
       <c r="D1590" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1590">
         <v>19602.69400766283</v>
@@ -29228,7 +29243,7 @@
         <v>1474</v>
       </c>
       <c r="D1591" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1591">
         <v>50448.10957854406</v>
@@ -29245,7 +29260,7 @@
         <v>1472</v>
       </c>
       <c r="D1592" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1592">
         <v>19602.69400766283</v>
@@ -29262,7 +29277,7 @@
         <v>1473</v>
       </c>
       <c r="D1593" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1593">
         <v>19602.69400766283</v>
@@ -29279,7 +29294,7 @@
         <v>1474</v>
       </c>
       <c r="D1594" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1594">
         <v>19602.69400766283</v>
@@ -29296,7 +29311,7 @@
         <v>1472</v>
       </c>
       <c r="D1595" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1595">
         <v>19602.69400766283</v>
@@ -29313,7 +29328,7 @@
         <v>1473</v>
       </c>
       <c r="D1596" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1596">
         <v>50448.10957854406</v>
@@ -29330,7 +29345,7 @@
         <v>1474</v>
       </c>
       <c r="D1597" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1597">
         <v>21823.31168821839</v>
@@ -29347,7 +29362,7 @@
         <v>1472</v>
       </c>
       <c r="D1598" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1598">
         <v>19602.69400766283</v>
@@ -29364,7 +29379,7 @@
         <v>1473</v>
       </c>
       <c r="D1599" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1599">
         <v>50448.10957854406</v>
@@ -29381,7 +29396,7 @@
         <v>1474</v>
       </c>
       <c r="D1600" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1600">
         <v>21823.31168821839</v>
@@ -29398,7 +29413,7 @@
         <v>1450</v>
       </c>
       <c r="D1601" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1601">
         <v>21823.31168821839</v>
@@ -29415,7 +29430,7 @@
         <v>1479</v>
       </c>
       <c r="D1602" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1602">
         <v>19602.69400766283</v>
@@ -29432,7 +29447,7 @@
         <v>1451</v>
       </c>
       <c r="D1603" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1603">
         <v>19602.69400766283</v>
@@ -29449,7 +29464,7 @@
         <v>1469</v>
       </c>
       <c r="D1604" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1604">
         <v>19602.69400766283</v>
@@ -29466,7 +29481,7 @@
         <v>1469</v>
       </c>
       <c r="D1605" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1605">
         <v>19602.69400766283</v>
@@ -29483,7 +29498,7 @@
         <v>1479</v>
       </c>
       <c r="D1606" t="s">
-        <v>1892</v>
+        <v>1897</v>
       </c>
       <c r="E1606">
         <v>27990.375</v>
@@ -29500,7 +29515,7 @@
         <v>1479</v>
       </c>
       <c r="D1607" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1607">
         <v>50448.10957854406</v>
@@ -29545,7 +29560,7 @@
         <v>1480</v>
       </c>
       <c r="D1610" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1610">
         <v>245440.73125</v>
@@ -29646,7 +29661,7 @@
         <v>1482</v>
       </c>
       <c r="D1617" t="s">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="E1617">
         <v>33472.9</v>
@@ -29663,7 +29678,7 @@
         <v>1484</v>
       </c>
       <c r="D1618" t="s">
-        <v>1910</v>
+        <v>1915</v>
       </c>
       <c r="E1618">
         <v>33472.9</v>
@@ -30123,7 +30138,7 @@
         <v>1499</v>
       </c>
       <c r="D1650" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1650">
         <v>916312.0633333332</v>
@@ -30283,7 +30298,7 @@
         <v>1504</v>
       </c>
       <c r="D1661" t="s">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="E1661">
         <v>5401.233333</v>
@@ -30300,7 +30315,7 @@
         <v>1505</v>
       </c>
       <c r="D1662" t="s">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="E1662">
         <v>5401.233333</v>
@@ -30317,7 +30332,7 @@
         <v>1506</v>
       </c>
       <c r="D1663" t="s">
-        <v>1911</v>
+        <v>1916</v>
       </c>
       <c r="E1663">
         <v>5401.233333</v>
@@ -30544,7 +30559,7 @@
         <v>1509</v>
       </c>
       <c r="D1679" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1679">
         <v>245440.73125</v>
@@ -30561,7 +30576,7 @@
         <v>1483</v>
       </c>
       <c r="D1680" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1680">
         <v>245440.73125</v>
@@ -30690,7 +30705,7 @@
         <v>1480</v>
       </c>
       <c r="D1689" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1689">
         <v>425430.6008333333</v>
@@ -30707,7 +30722,7 @@
         <v>1510</v>
       </c>
       <c r="D1690" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1690">
         <v>425430.6008333333</v>
@@ -30724,7 +30739,7 @@
         <v>1511</v>
       </c>
       <c r="D1691" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1691">
         <v>245440.73125</v>
@@ -30895,7 +30910,7 @@
         <v>1517</v>
       </c>
       <c r="D1703" t="s">
-        <v>1912</v>
+        <v>1917</v>
       </c>
       <c r="E1703">
         <v>1</v>
@@ -30912,7 +30927,7 @@
         <v>1517</v>
       </c>
       <c r="D1704" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1704">
         <v>1592.820489130435</v>
@@ -31114,7 +31129,7 @@
         <v>1517</v>
       </c>
       <c r="D1718" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1718">
         <v>1592.820489130435</v>
@@ -31327,7 +31342,7 @@
         <v>1533</v>
       </c>
       <c r="D1733" t="s">
-        <v>1913</v>
+        <v>1918</v>
       </c>
       <c r="E1733">
         <v>3004</v>
@@ -31386,7 +31401,7 @@
         <v>1517</v>
       </c>
       <c r="D1737" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1737">
         <v>1592.820489130435</v>
@@ -31403,7 +31418,7 @@
         <v>1534</v>
       </c>
       <c r="D1738" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1738">
         <v>1592.820489130435</v>
@@ -31420,7 +31435,7 @@
         <v>1518</v>
       </c>
       <c r="D1739" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1739">
         <v>1592.820489130435</v>
@@ -31437,7 +31452,7 @@
         <v>1535</v>
       </c>
       <c r="D1740" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1740">
         <v>1592.820489130435</v>
@@ -31468,7 +31483,7 @@
         <v>1536</v>
       </c>
       <c r="D1742" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1742">
         <v>7260.298043478259</v>
@@ -31485,7 +31500,7 @@
         <v>1537</v>
       </c>
       <c r="D1743" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1743">
         <v>7260.298043478259</v>
@@ -31530,7 +31545,7 @@
         <v>1514</v>
       </c>
       <c r="D1746" t="s">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="E1746">
         <v>2036.95</v>
@@ -31617,7 +31632,7 @@
         <v>1517</v>
       </c>
       <c r="D1752" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1752">
         <v>1592.820489130435</v>
@@ -31634,7 +31649,7 @@
         <v>1518</v>
       </c>
       <c r="D1753" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1753">
         <v>1592.820489130435</v>
@@ -31710,7 +31725,7 @@
         <v>1541</v>
       </c>
       <c r="D1758" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1758">
         <v>3630.149021739131</v>
@@ -31727,7 +31742,7 @@
         <v>1542</v>
       </c>
       <c r="D1759" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1759">
         <v>1592.820489130435</v>
@@ -31744,7 +31759,7 @@
         <v>1543</v>
       </c>
       <c r="D1760" t="s">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="E1760">
         <v>1367.5</v>
@@ -31761,7 +31776,7 @@
         <v>1544</v>
       </c>
       <c r="D1761" t="s">
-        <v>1915</v>
+        <v>1920</v>
       </c>
       <c r="E1761">
         <v>1367.5</v>
@@ -31778,7 +31793,7 @@
         <v>1514</v>
       </c>
       <c r="D1762" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1762">
         <v>7260.298043478259</v>
@@ -31823,7 +31838,7 @@
         <v>1517</v>
       </c>
       <c r="D1765" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1765">
         <v>1592.820489130435</v>
@@ -32036,7 +32051,7 @@
         <v>1518</v>
       </c>
       <c r="D1780" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1780">
         <v>1592.820489130435</v>
@@ -32291,7 +32306,7 @@
         <v>1517</v>
       </c>
       <c r="D1798" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1798">
         <v>1592.820489130435</v>
@@ -32308,7 +32323,7 @@
         <v>1531</v>
       </c>
       <c r="D1799" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1799">
         <v>1592.820489130435</v>
@@ -32443,7 +32458,7 @@
         <v>1518</v>
       </c>
       <c r="D1808" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1808">
         <v>1592.820489130435</v>
@@ -32460,7 +32475,7 @@
         <v>1514</v>
       </c>
       <c r="D1809" t="s">
-        <v>1914</v>
+        <v>1919</v>
       </c>
       <c r="E1809">
         <v>2036.95</v>
@@ -32629,7 +32644,7 @@
         <v>1561</v>
       </c>
       <c r="D1820" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1820">
         <v>261899.0740853658</v>
@@ -32744,7 +32759,7 @@
         <v>1558</v>
       </c>
       <c r="D1828" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1828">
         <v>778.91</v>
@@ -32775,7 +32790,7 @@
         <v>1565</v>
       </c>
       <c r="D1830" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1830">
         <v>134488.7137195122</v>
@@ -32792,7 +32807,7 @@
         <v>1556</v>
       </c>
       <c r="D1831" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1831">
         <v>261899.0740853658</v>
@@ -32882,7 +32897,7 @@
         <v>1563</v>
       </c>
       <c r="D1837" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1837">
         <v>134488.7137195122</v>
@@ -32899,7 +32914,7 @@
         <v>1558</v>
       </c>
       <c r="D1838" t="s">
-        <v>1899</v>
+        <v>1904</v>
       </c>
       <c r="E1838">
         <v>19174.2</v>
@@ -32981,7 +32996,7 @@
         <v>1559</v>
       </c>
       <c r="D1843" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1843">
         <v>778.91</v>
@@ -32998,7 +33013,7 @@
         <v>1570</v>
       </c>
       <c r="D1844" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1844">
         <v>778.91</v>
@@ -33015,7 +33030,7 @@
         <v>1554</v>
       </c>
       <c r="D1845" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1845">
         <v>778.91</v>
@@ -33032,7 +33047,7 @@
         <v>1571</v>
       </c>
       <c r="D1846" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1846">
         <v>778.91</v>
@@ -33049,7 +33064,7 @@
         <v>1572</v>
       </c>
       <c r="D1847" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1847">
         <v>778.91</v>
@@ -33066,7 +33081,7 @@
         <v>1556</v>
       </c>
       <c r="D1848" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1848">
         <v>778.91</v>
@@ -33083,7 +33098,7 @@
         <v>1558</v>
       </c>
       <c r="D1849" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1849">
         <v>273696.3296747967</v>
@@ -33270,7 +33285,7 @@
         <v>1569</v>
       </c>
       <c r="D1860" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1860">
         <v>134488.7137195122</v>
@@ -33287,7 +33302,7 @@
         <v>1561</v>
       </c>
       <c r="D1861" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1861">
         <v>134488.7137195122</v>
@@ -33668,7 +33683,7 @@
         <v>1570</v>
       </c>
       <c r="D1885" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1885">
         <v>261899.0740853658</v>
@@ -33685,7 +33700,7 @@
         <v>1556</v>
       </c>
       <c r="D1886" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1886">
         <v>134488.7137195122</v>
@@ -33733,7 +33748,7 @@
         <v>1559</v>
       </c>
       <c r="D1889" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1889">
         <v>778.91</v>
@@ -33750,7 +33765,7 @@
         <v>1570</v>
       </c>
       <c r="D1890" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1890">
         <v>778.91</v>
@@ -33767,7 +33782,7 @@
         <v>1554</v>
       </c>
       <c r="D1891" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1891">
         <v>778.91</v>
@@ -33784,7 +33799,7 @@
         <v>1555</v>
       </c>
       <c r="D1892" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1892">
         <v>778.91</v>
@@ -33801,7 +33816,7 @@
         <v>1557</v>
       </c>
       <c r="D1893" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1893">
         <v>778.91</v>
@@ -33818,7 +33833,7 @@
         <v>1571</v>
       </c>
       <c r="D1894" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1894">
         <v>778.91</v>
@@ -33835,7 +33850,7 @@
         <v>1572</v>
       </c>
       <c r="D1895" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1895">
         <v>778.91</v>
@@ -33852,7 +33867,7 @@
         <v>1556</v>
       </c>
       <c r="D1896" t="s">
-        <v>1916</v>
+        <v>1921</v>
       </c>
       <c r="E1896">
         <v>778.91</v>
@@ -33869,7 +33884,7 @@
         <v>1564</v>
       </c>
       <c r="D1897" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1897">
         <v>134488.7137195122</v>
@@ -33914,7 +33929,7 @@
         <v>1558</v>
       </c>
       <c r="D1900" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1900">
         <v>134488.7137195122</v>
@@ -35030,7 +35045,7 @@
         <v>1557</v>
       </c>
       <c r="D1969" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1969">
         <v>273696.3296747967</v>
@@ -35098,7 +35113,7 @@
         <v>1564</v>
       </c>
       <c r="D1973" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1973">
         <v>261899.0740853658</v>
@@ -35329,7 +35344,7 @@
         <v>1565</v>
       </c>
       <c r="D1988" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E1988">
         <v>273696.3296747967</v>
@@ -35461,7 +35476,7 @@
         <v>1569</v>
       </c>
       <c r="D1997" t="s">
-        <v>1907</v>
+        <v>1912</v>
       </c>
       <c r="E1997">
         <v>49459.1</v>
@@ -35478,7 +35493,7 @@
         <v>1565</v>
       </c>
       <c r="D1998" t="s">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="E1998">
         <v>343.7</v>
@@ -35495,7 +35510,7 @@
         <v>1565</v>
       </c>
       <c r="D1999" t="s">
-        <v>1917</v>
+        <v>1922</v>
       </c>
       <c r="E1999">
         <v>343.7</v>
@@ -35669,7 +35684,7 @@
         <v>1564</v>
       </c>
       <c r="D2011" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2011">
         <v>134488.7137195122</v>
@@ -35798,7 +35813,7 @@
         <v>1557</v>
       </c>
       <c r="D2020" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2020">
         <v>134488.7137195122</v>
@@ -35849,7 +35864,7 @@
         <v>1561</v>
       </c>
       <c r="D2023" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2023">
         <v>134488.7137195122</v>
@@ -36503,7 +36518,7 @@
         <v>1564</v>
       </c>
       <c r="D2068" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2068">
         <v>134488.7137195122</v>
@@ -36520,7 +36535,7 @@
         <v>1564</v>
       </c>
       <c r="D2069" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2069">
         <v>134488.7137195122</v>
@@ -36658,7 +36673,7 @@
         <v>1596</v>
       </c>
       <c r="D2078" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2078">
         <v>2531.429172413793</v>
@@ -36703,7 +36718,7 @@
         <v>1266</v>
       </c>
       <c r="D2081" t="s">
-        <v>1918</v>
+        <v>1923</v>
       </c>
       <c r="E2081">
         <v>22094.4</v>
@@ -36835,7 +36850,7 @@
         <v>1599</v>
       </c>
       <c r="D2090" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2090">
         <v>2531.429172413793</v>
@@ -36883,7 +36898,7 @@
         <v>1266</v>
       </c>
       <c r="D2093" t="s">
-        <v>1919</v>
+        <v>1924</v>
       </c>
       <c r="E2093">
         <v>11089.4</v>
@@ -37088,7 +37103,7 @@
         <v>1266</v>
       </c>
       <c r="D2107" t="s">
-        <v>1920</v>
+        <v>1925</v>
       </c>
       <c r="E2107">
         <v>2427.4</v>
@@ -37147,7 +37162,7 @@
         <v>1266</v>
       </c>
       <c r="D2111" t="s">
-        <v>1921</v>
+        <v>1926</v>
       </c>
       <c r="E2111">
         <v>1.2</v>
@@ -37251,7 +37266,7 @@
         <v>1266</v>
       </c>
       <c r="D2118" t="s">
-        <v>1922</v>
+        <v>1927</v>
       </c>
       <c r="E2118">
         <v>3731</v>
@@ -37660,7 +37675,7 @@
         <v>1597</v>
       </c>
       <c r="D2147" t="s">
-        <v>1923</v>
+        <v>1928</v>
       </c>
       <c r="E2147">
         <v>41</v>
@@ -37859,7 +37874,7 @@
         <v>1595</v>
       </c>
       <c r="D2161" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2161">
         <v>15959.01</v>
@@ -37904,7 +37919,7 @@
         <v>1596</v>
       </c>
       <c r="D2164" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2164">
         <v>2531.429172413793</v>
@@ -37935,7 +37950,7 @@
         <v>1605</v>
       </c>
       <c r="D2166" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2166">
         <v>2531.429172413793</v>
@@ -37952,7 +37967,7 @@
         <v>1595</v>
       </c>
       <c r="D2167" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2167">
         <v>2531.429172413793</v>
@@ -37969,7 +37984,7 @@
         <v>1614</v>
       </c>
       <c r="D2168" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2168">
         <v>73.88085099111414</v>
@@ -37986,7 +38001,7 @@
         <v>1615</v>
       </c>
       <c r="D2169" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2169">
         <v>73.88085099111414</v>
@@ -38003,7 +38018,7 @@
         <v>1616</v>
       </c>
       <c r="D2170" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2170">
         <v>73.88085099111414</v>
@@ -38020,7 +38035,7 @@
         <v>1614</v>
       </c>
       <c r="D2171" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2171">
         <v>73.88085099111414</v>
@@ -38037,7 +38052,7 @@
         <v>1616</v>
       </c>
       <c r="D2172" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2172">
         <v>31.56075187969925</v>
@@ -38082,7 +38097,7 @@
         <v>1614</v>
       </c>
       <c r="D2175" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2175">
         <v>73.88085099111414</v>
@@ -38183,7 +38198,7 @@
         <v>1616</v>
       </c>
       <c r="D2182" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2182">
         <v>73.88085099111414</v>
@@ -38354,7 +38369,7 @@
         <v>1634</v>
       </c>
       <c r="D2194" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2194">
         <v>73.88085099111414</v>
@@ -38371,7 +38386,7 @@
         <v>1634</v>
       </c>
       <c r="D2195" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2195">
         <v>73.88085099111414</v>
@@ -38570,7 +38585,7 @@
         <v>1614</v>
       </c>
       <c r="D2209" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2209">
         <v>31.56075187969925</v>
@@ -38706,7 +38721,7 @@
         <v>1654</v>
       </c>
       <c r="D2217" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2217">
         <v>31.56075187969925</v>
@@ -38723,7 +38738,7 @@
         <v>1655</v>
       </c>
       <c r="D2218" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2218">
         <v>31.56075187969925</v>
@@ -38740,7 +38755,7 @@
         <v>1656</v>
       </c>
       <c r="D2219" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2219">
         <v>31.56075187969925</v>
@@ -38757,7 +38772,7 @@
         <v>1657</v>
       </c>
       <c r="D2220" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2220">
         <v>73.88085099111414</v>
@@ -38774,7 +38789,7 @@
         <v>1623</v>
       </c>
       <c r="D2221" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2221">
         <v>73.88085099111414</v>
@@ -38833,7 +38848,7 @@
         <v>1661</v>
       </c>
       <c r="D2225" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2225">
         <v>73.88085099111414</v>
@@ -38864,7 +38879,7 @@
         <v>1663</v>
       </c>
       <c r="D2227" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2227">
         <v>31.56075187969925</v>
@@ -38909,7 +38924,7 @@
         <v>1616</v>
       </c>
       <c r="D2230" t="s">
-        <v>1924</v>
+        <v>1929</v>
       </c>
       <c r="E2230">
         <v>13.5</v>
@@ -39094,7 +39109,7 @@
         <v>1616</v>
       </c>
       <c r="D2243" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2243">
         <v>73.88085099111414</v>
@@ -39153,7 +39168,7 @@
         <v>1680</v>
       </c>
       <c r="D2247" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2247">
         <v>73.64175438596492</v>
@@ -39453,7 +39468,7 @@
         <v>1616</v>
       </c>
       <c r="D2268" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2268">
         <v>73.88085099111414</v>
@@ -39484,7 +39499,7 @@
         <v>1698</v>
       </c>
       <c r="D2270" t="s">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="E2270">
         <v>1467.866667</v>
@@ -39501,7 +39516,7 @@
         <v>1699</v>
       </c>
       <c r="D2271" t="s">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="E2271">
         <v>1467.866667</v>
@@ -39518,7 +39533,7 @@
         <v>1700</v>
       </c>
       <c r="D2272" t="s">
-        <v>1925</v>
+        <v>1930</v>
       </c>
       <c r="E2272">
         <v>1467.866667</v>
@@ -39535,7 +39550,7 @@
         <v>1623</v>
       </c>
       <c r="D2273" t="s">
-        <v>1926</v>
+        <v>1931</v>
       </c>
       <c r="E2273">
         <v>29833</v>
@@ -39695,7 +39710,7 @@
         <v>1710</v>
       </c>
       <c r="D2284" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2284">
         <v>73.88085099111414</v>
@@ -39712,7 +39727,7 @@
         <v>1710</v>
       </c>
       <c r="D2285" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2285">
         <v>73.88085099111414</v>
@@ -39729,7 +39744,7 @@
         <v>1634</v>
       </c>
       <c r="D2286" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2286">
         <v>31.56075187969925</v>
@@ -39746,7 +39761,7 @@
         <v>1614</v>
       </c>
       <c r="D2287" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2287">
         <v>73.64175438596492</v>
@@ -39763,7 +39778,7 @@
         <v>1616</v>
       </c>
       <c r="D2288" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2288">
         <v>73.88085099111414</v>
@@ -39780,7 +39795,7 @@
         <v>1616</v>
       </c>
       <c r="D2289" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2289">
         <v>73.88085099111414</v>
@@ -39839,7 +39854,7 @@
         <v>1623</v>
       </c>
       <c r="D2293" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2293">
         <v>31.56075187969925</v>
@@ -39898,7 +39913,7 @@
         <v>1714</v>
       </c>
       <c r="D2297" t="s">
-        <v>1927</v>
+        <v>1932</v>
       </c>
       <c r="E2297">
         <v>2451.933333</v>
@@ -39915,7 +39930,7 @@
         <v>1715</v>
       </c>
       <c r="D2298" t="s">
-        <v>1927</v>
+        <v>1932</v>
       </c>
       <c r="E2298">
         <v>2451.933333</v>
@@ -39932,7 +39947,7 @@
         <v>1716</v>
       </c>
       <c r="D2299" t="s">
-        <v>1927</v>
+        <v>1932</v>
       </c>
       <c r="E2299">
         <v>2451.933333</v>
@@ -39991,7 +40006,7 @@
         <v>1719</v>
       </c>
       <c r="D2303" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2303">
         <v>73.64175438596492</v>
@@ -40008,7 +40023,7 @@
         <v>1710</v>
       </c>
       <c r="D2304" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2304">
         <v>73.88085099111414</v>
@@ -40025,7 +40040,7 @@
         <v>1634</v>
       </c>
       <c r="D2305" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2305">
         <v>73.88085099111414</v>
@@ -40126,7 +40141,7 @@
         <v>1616</v>
       </c>
       <c r="D2312" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2312">
         <v>73.88085099111414</v>
@@ -40143,7 +40158,7 @@
         <v>1616</v>
       </c>
       <c r="D2313" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2313">
         <v>73.88085099111414</v>
@@ -40323,7 +40338,7 @@
         <v>1614</v>
       </c>
       <c r="D2325" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2325">
         <v>73.88085099111414</v>
@@ -40452,7 +40467,7 @@
         <v>1733</v>
       </c>
       <c r="D2334" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2334">
         <v>18066.614</v>
@@ -41155,7 +41170,7 @@
         <v>1745</v>
       </c>
       <c r="D2384" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2384">
         <v>27631.292</v>
@@ -41172,7 +41187,7 @@
         <v>1746</v>
       </c>
       <c r="D2385" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2385">
         <v>18066.614</v>
@@ -41315,7 +41330,7 @@
         <v>1736</v>
       </c>
       <c r="D2395" t="s">
-        <v>1889</v>
+        <v>1894</v>
       </c>
       <c r="E2395">
         <v>18066.614</v>
@@ -41332,7 +41347,7 @@
         <v>1734</v>
       </c>
       <c r="D2396" t="s">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="E2396">
         <v>1.8</v>
@@ -42203,7 +42218,7 @@
         <v>1772</v>
       </c>
       <c r="E2458">
-        <v>9201.98</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2459" spans="1:5">
@@ -43631,7 +43646,7 @@
         <v>1865</v>
       </c>
       <c r="E2560">
-        <v>294.17</v>
+        <v>994.51</v>
       </c>
     </row>
     <row r="2561" spans="1:5">
@@ -43645,7 +43660,7 @@
         <v>1866</v>
       </c>
       <c r="E2561">
-        <v>994.51</v>
+        <v>294.17</v>
       </c>
     </row>
     <row r="2562" spans="1:5">
@@ -43754,7 +43769,7 @@
         <v>123</v>
       </c>
       <c r="C2569" t="s">
-        <v>1439</v>
+        <v>1872</v>
       </c>
       <c r="E2569">
         <v>1391.57</v>
@@ -43782,7 +43797,7 @@
         <v>123</v>
       </c>
       <c r="C2571" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="E2571">
         <v>0</v>
@@ -43796,7 +43811,7 @@
         <v>123</v>
       </c>
       <c r="C2572" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="E2572">
         <v>2439.92</v>
@@ -43824,7 +43839,7 @@
         <v>1013</v>
       </c>
       <c r="C2574" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="E2574">
         <v>9.77</v>
@@ -43838,7 +43853,7 @@
         <v>1013</v>
       </c>
       <c r="C2575" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="E2575">
         <v>0</v>
@@ -43852,7 +43867,7 @@
         <v>1013</v>
       </c>
       <c r="C2576" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="E2576">
         <v>0.9</v>
@@ -43866,7 +43881,7 @@
         <v>1013</v>
       </c>
       <c r="C2577" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="E2577">
         <v>32.71</v>
@@ -43880,10 +43895,10 @@
         <v>144</v>
       </c>
       <c r="C2578" t="s">
-        <v>1870</v>
+        <v>1879</v>
       </c>
       <c r="E2578">
-        <v>10444.7</v>
+        <v>15430.08</v>
       </c>
     </row>
     <row r="2579" spans="1:5">
@@ -43894,10 +43909,10 @@
         <v>144</v>
       </c>
       <c r="C2579" t="s">
-        <v>1871</v>
+        <v>1880</v>
       </c>
       <c r="E2579">
-        <v>26152.24</v>
+        <v>7799.360000000001</v>
       </c>
     </row>
     <row r="2580" spans="1:5">
@@ -43922,10 +43937,10 @@
         <v>144</v>
       </c>
       <c r="C2581" t="s">
-        <v>1872</v>
+        <v>1881</v>
       </c>
       <c r="E2581">
-        <v>10198</v>
+        <v>3725.14</v>
       </c>
     </row>
     <row r="2582" spans="1:5">
@@ -43936,10 +43951,10 @@
         <v>144</v>
       </c>
       <c r="C2582" t="s">
-        <v>1873</v>
+        <v>1882</v>
       </c>
       <c r="E2582">
-        <v>15576.89</v>
+        <v>13247.82</v>
       </c>
     </row>
     <row r="2583" spans="1:5">
@@ -43964,7 +43979,7 @@
         <v>1015</v>
       </c>
       <c r="C2584" t="s">
-        <v>1878</v>
+        <v>1883</v>
       </c>
       <c r="E2584">
         <v>202602.49</v>
@@ -43978,7 +43993,7 @@
         <v>1015</v>
       </c>
       <c r="C2585" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="E2585">
         <v>410113.39</v>
@@ -44006,7 +44021,7 @@
         <v>1015</v>
       </c>
       <c r="C2587" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="E2587">
         <v>21414.33</v>
@@ -44020,7 +44035,7 @@
         <v>1015</v>
       </c>
       <c r="C2588" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="E2588">
         <v>1582249.18</v>
@@ -44048,7 +44063,7 @@
         <v>1016</v>
       </c>
       <c r="C2590" t="s">
-        <v>1882</v>
+        <v>1887</v>
       </c>
       <c r="E2590">
         <v>2862.75</v>
@@ -44062,7 +44077,7 @@
         <v>1016</v>
       </c>
       <c r="C2591" t="s">
-        <v>1883</v>
+        <v>1888</v>
       </c>
       <c r="E2591">
         <v>35411.49000000001</v>
@@ -44076,7 +44091,7 @@
         <v>1016</v>
       </c>
       <c r="C2592" t="s">
-        <v>1884</v>
+        <v>1889</v>
       </c>
       <c r="E2592">
         <v>31319.45</v>
@@ -44090,7 +44105,7 @@
         <v>1016</v>
       </c>
       <c r="C2593" t="s">
-        <v>1885</v>
+        <v>1890</v>
       </c>
       <c r="E2593">
         <v>23678.54</v>
@@ -44104,7 +44119,7 @@
         <v>1016</v>
       </c>
       <c r="C2594" t="s">
-        <v>1886</v>
+        <v>1891</v>
       </c>
       <c r="E2594">
         <v>25309.17</v>
@@ -44118,7 +44133,7 @@
         <v>1017</v>
       </c>
       <c r="C2595" t="s">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="E2595">
         <v>135620.01</v>
@@ -44132,7 +44147,7 @@
         <v>1017</v>
       </c>
       <c r="C2596" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="E2596">
         <v>304931.14</v>
@@ -44160,7 +44175,7 @@
         <v>1017</v>
       </c>
       <c r="C2598" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="E2598">
         <v>691271.3199999999</v>
@@ -44188,7 +44203,7 @@
         <v>1019</v>
       </c>
       <c r="C2600" t="s">
-        <v>1887</v>
+        <v>1892</v>
       </c>
       <c r="E2600">
         <v>48101.84</v>
@@ -44202,7 +44217,7 @@
         <v>1019</v>
       </c>
       <c r="C2601" t="s">
-        <v>1879</v>
+        <v>1884</v>
       </c>
       <c r="E2601">
         <v>99763.59</v>
@@ -44230,7 +44245,7 @@
         <v>1019</v>
       </c>
       <c r="C2603" t="s">
-        <v>1881</v>
+        <v>1886</v>
       </c>
       <c r="E2603">
         <v>102124.52</v>
@@ -44258,7 +44273,7 @@
         <v>1021</v>
       </c>
       <c r="C2605" t="s">
-        <v>1888</v>
+        <v>1893</v>
       </c>
       <c r="E2605">
         <v>35966.85000000001</v>
@@ -44272,7 +44287,7 @@
         <v>1021</v>
       </c>
       <c r="C2606" t="s">
-        <v>1880</v>
+        <v>1885</v>
       </c>
       <c r="E2606">
         <v>3080.1</v>

--- a/output/clean_data/stock_landings.xlsx
+++ b/output/clean_data/stock_landings.xlsx
@@ -17155,7 +17155,7 @@
         <v>1406</v>
       </c>
       <c r="E770">
-        <v>1310.28</v>
+        <v>655.14</v>
       </c>
     </row>
     <row r="771" spans="1:5">
@@ -18613,7 +18613,7 @@
         <v>1411</v>
       </c>
       <c r="E869">
-        <v>994.51</v>
+        <v>497.255</v>
       </c>
     </row>
     <row r="870" spans="1:5">
@@ -25244,7 +25244,7 @@
         <v>1449</v>
       </c>
       <c r="E1321">
-        <v>294.17</v>
+        <v>147.085</v>
       </c>
     </row>
     <row r="1322" spans="1:5">
@@ -26024,7 +26024,7 @@
         <v>1449</v>
       </c>
       <c r="E1375">
-        <v>70.59999999999999</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="1376" spans="1:5">
@@ -32855,7 +32855,7 @@
         <v>1566</v>
       </c>
       <c r="E1834">
-        <v>381.11</v>
+        <v>190.555</v>
       </c>
     </row>
     <row r="1835" spans="1:5">
@@ -36631,7 +36631,7 @@
         <v>1595</v>
       </c>
       <c r="E2075">
-        <v>376.99</v>
+        <v>188.495</v>
       </c>
     </row>
     <row r="2076" spans="1:5">
@@ -36766,7 +36766,7 @@
         <v>1595</v>
       </c>
       <c r="E2084">
-        <v>3503.2</v>
+        <v>1751.6</v>
       </c>
     </row>
     <row r="2085" spans="1:5">
@@ -43758,7 +43758,7 @@
         <v>1871</v>
       </c>
       <c r="E2568">
-        <v>2219.37</v>
+        <v>1564.23</v>
       </c>
     </row>
     <row r="2569" spans="1:5">
@@ -43772,7 +43772,7 @@
         <v>1872</v>
       </c>
       <c r="E2569">
-        <v>1391.57</v>
+        <v>1356.27</v>
       </c>
     </row>
     <row r="2570" spans="1:5">

--- a/output/clean_data/stock_landings.xlsx
+++ b/output/clean_data/stock_landings.xlsx
@@ -6323,7 +6323,7 @@
         <v>1029</v>
       </c>
       <c r="E10">
-        <v>25720.89743589743</v>
+        <v>22168.28729281768</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -6337,7 +6337,7 @@
         <v>1030</v>
       </c>
       <c r="E11">
-        <v>7201.851282051281</v>
+        <v>6207.12044198895</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -6351,7 +6351,7 @@
         <v>1031</v>
       </c>
       <c r="E12">
-        <v>7201.851282051281</v>
+        <v>6207.12044198895</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -6365,7 +6365,7 @@
         <v>1032</v>
       </c>
       <c r="E13">
-        <v>9259.523076923078</v>
+        <v>7980.583425414364</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -6379,7 +6379,7 @@
         <v>1033</v>
       </c>
       <c r="E14">
-        <v>30865.07692307692</v>
+        <v>26601.94475138121</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -6626,7 +6626,7 @@
         <v>1049</v>
       </c>
       <c r="E31">
-        <v>471.034775057461</v>
+        <v>471.0337988236317</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -6640,7 +6640,7 @@
         <v>1050</v>
       </c>
       <c r="E32">
-        <v>1884.139100229844</v>
+        <v>1884.135195294527</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -6654,7 +6654,7 @@
         <v>1051</v>
       </c>
       <c r="E33">
-        <v>0.06280463667432813</v>
+        <v>0.06280450650981757</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -6668,7 +6668,7 @@
         <v>1052</v>
       </c>
       <c r="E34">
-        <v>15701.15916858203</v>
+        <v>15701.12662745439</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -6682,7 +6682,7 @@
         <v>1053</v>
       </c>
       <c r="E35">
-        <v>1570.115916858203</v>
+        <v>1570.112662745439</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -6696,7 +6696,7 @@
         <v>1054</v>
       </c>
       <c r="E36">
-        <v>1256.092733486563</v>
+        <v>1256.090130196352</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -6710,7 +6710,7 @@
         <v>1046</v>
       </c>
       <c r="E37">
-        <v>2512.185466973125</v>
+        <v>2512.180260392703</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -6724,7 +6724,7 @@
         <v>1055</v>
       </c>
       <c r="E38">
-        <v>3140.231833716406</v>
+        <v>3140.22532549088</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -6738,7 +6738,7 @@
         <v>1056</v>
       </c>
       <c r="E39">
-        <v>3768.278200459689</v>
+        <v>3768.270390589054</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -6822,7 +6822,7 @@
         <v>1023</v>
       </c>
       <c r="E45">
-        <v>1014.496461326962</v>
+        <v>976.9237026413667</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -6836,7 +6836,7 @@
         <v>1049</v>
       </c>
       <c r="E46">
-        <v>53.25161205852509</v>
+        <v>51.27939229653911</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -6850,7 +6850,7 @@
         <v>1060</v>
       </c>
       <c r="E47">
-        <v>372.7612844096757</v>
+        <v>358.9557460757738</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -6864,7 +6864,7 @@
         <v>1061</v>
       </c>
       <c r="E48">
-        <v>159.7548361755753</v>
+        <v>153.8381768896174</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -6878,7 +6878,7 @@
         <v>1046</v>
       </c>
       <c r="E49">
-        <v>26.62580602926255</v>
+        <v>25.63969614826956</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7217,7 +7217,7 @@
         <v>1081</v>
       </c>
       <c r="E73">
-        <v>11495.64622641509</v>
+        <v>11495.42933152205</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -7231,7 +7231,7 @@
         <v>1082</v>
       </c>
       <c r="E74">
-        <v>3678.60679245283</v>
+        <v>3678.537386087055</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -7245,7 +7245,7 @@
         <v>1083</v>
       </c>
       <c r="E75">
-        <v>9196.516981132077</v>
+        <v>9196.343465217638</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -7528,7 +7528,7 @@
         <v>1096</v>
       </c>
       <c r="E95">
-        <v>10768.97333333333</v>
+        <v>9904.238947160969</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -7542,7 +7542,7 @@
         <v>1097</v>
       </c>
       <c r="E96">
-        <v>21537.94666666667</v>
+        <v>19808.47789432194</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -7556,7 +7556,7 @@
         <v>1098</v>
       </c>
       <c r="E97">
-        <v>20191.82499999999</v>
+        <v>18570.44802592682</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -7570,7 +7570,7 @@
         <v>1099</v>
       </c>
       <c r="E98">
-        <v>4038.365</v>
+        <v>3714.089605185364</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -7584,7 +7584,7 @@
         <v>1100</v>
       </c>
       <c r="E99">
-        <v>67306.08333333333</v>
+        <v>61901.49341975606</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -7598,7 +7598,7 @@
         <v>1101</v>
       </c>
       <c r="E100">
-        <v>14807.33833333333</v>
+        <v>13618.32855234633</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -7612,7 +7612,7 @@
         <v>1102</v>
       </c>
       <c r="E101">
-        <v>30960.79833333332</v>
+        <v>28474.68697308779</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -8088,7 +8088,7 @@
         <v>1121</v>
       </c>
       <c r="E135">
-        <v>1412</v>
+        <v>789.9521664941675</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -8102,7 +8102,7 @@
         <v>1120</v>
       </c>
       <c r="E136">
-        <v>2541.6</v>
+        <v>1421.913899689502</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -8116,7 +8116,7 @@
         <v>1122</v>
       </c>
       <c r="E137">
-        <v>1694.4</v>
+        <v>947.9425997930015</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -8623,7 +8623,7 @@
         <v>1151</v>
       </c>
       <c r="E173">
-        <v>437.44</v>
+        <v>437.002997002997</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -42190,7 +42190,7 @@
         <v>1770</v>
       </c>
       <c r="E2456">
-        <v>80249.2</v>
+        <v>11084.14364640884</v>
       </c>
     </row>
     <row r="2457" spans="1:5">
@@ -42204,7 +42204,7 @@
         <v>1771</v>
       </c>
       <c r="E2457">
-        <v>437.44</v>
+        <v>0.437002997002997</v>
       </c>
     </row>
     <row r="2458" spans="1:5">
@@ -42246,7 +42246,7 @@
         <v>1774</v>
       </c>
       <c r="E2460">
-        <v>30303.3</v>
+        <v>0.06280450650981757</v>
       </c>
     </row>
     <row r="2461" spans="1:5">
@@ -42260,7 +42260,7 @@
         <v>1092</v>
       </c>
       <c r="E2461">
-        <v>1626.89</v>
+        <v>60.25328594843346</v>
       </c>
     </row>
     <row r="2462" spans="1:5">
@@ -42288,7 +42288,7 @@
         <v>1057</v>
       </c>
       <c r="E2463">
-        <v>24370.77</v>
+        <v>0.459817173260882</v>
       </c>
     </row>
     <row r="2464" spans="1:5">
@@ -42316,7 +42316,7 @@
         <v>1777</v>
       </c>
       <c r="E2465">
-        <v>84805.66499999999</v>
+        <v>13618.32855234633</v>
       </c>
     </row>
     <row r="2466" spans="1:5">
@@ -42330,7 +42330,7 @@
         <v>1778</v>
       </c>
       <c r="E2466">
-        <v>84805.66499999999</v>
+        <v>1.238029868395121</v>
       </c>
     </row>
     <row r="2467" spans="1:5">
@@ -42386,7 +42386,7 @@
         <v>1779</v>
       </c>
       <c r="E2470">
-        <v>19334.705</v>
+        <v>11002.97178998014</v>
       </c>
     </row>
     <row r="2471" spans="1:5">
@@ -42400,7 +42400,7 @@
         <v>1780</v>
       </c>
       <c r="E2471">
-        <v>19334.705</v>
+        <v>6032.596703963747</v>
       </c>
     </row>
     <row r="2472" spans="1:5">
@@ -43604,7 +43604,7 @@
         <v>1862</v>
       </c>
       <c r="E2557">
-        <v>376.99</v>
+        <v>188.495</v>
       </c>
     </row>
     <row r="2558" spans="1:5">
@@ -43646,7 +43646,7 @@
         <v>1865</v>
       </c>
       <c r="E2560">
-        <v>994.51</v>
+        <v>497.255</v>
       </c>
     </row>
     <row r="2561" spans="1:5">
@@ -43660,7 +43660,7 @@
         <v>1866</v>
       </c>
       <c r="E2561">
-        <v>294.17</v>
+        <v>147.085</v>
       </c>
     </row>
     <row r="2562" spans="1:5">
@@ -43674,7 +43674,7 @@
         <v>1862</v>
       </c>
       <c r="E2562">
-        <v>3503.2</v>
+        <v>1751.6</v>
       </c>
     </row>
     <row r="2563" spans="1:5">
@@ -43688,7 +43688,7 @@
         <v>1867</v>
       </c>
       <c r="E2563">
-        <v>381.11</v>
+        <v>190.555</v>
       </c>
     </row>
     <row r="2564" spans="1:5">

--- a/output/clean_data/stock_landings.xlsx
+++ b/output/clean_data/stock_landings.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5893" uniqueCount="1926">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5887" uniqueCount="1926">
   <si>
     <t>Area</t>
   </si>
@@ -6246,7 +6246,7 @@
         <v>1886</v>
       </c>
       <c r="E6">
-        <v>3539.39990990991</v>
+        <v>5374.881174496644</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -7479,7 +7479,7 @@
         <v>1886</v>
       </c>
       <c r="E93">
-        <v>16335.69189189189</v>
+        <v>16226.05637583893</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -7590,11 +7590,8 @@
       <c r="C101" t="s">
         <v>1099</v>
       </c>
-      <c r="D101" t="s">
-        <v>1886</v>
-      </c>
       <c r="E101">
-        <v>3539.39990990991</v>
+        <v>1.346100299995238</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -7608,7 +7605,7 @@
         <v>1100</v>
       </c>
       <c r="E102">
-        <v>1.346110983246165</v>
+        <v>1.346100299995238</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -7622,7 +7619,7 @@
         <v>1101</v>
       </c>
       <c r="E103">
-        <v>10768.88786596932</v>
+        <v>10768.8023999619</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -7636,7 +7633,7 @@
         <v>1102</v>
       </c>
       <c r="E104">
-        <v>21537.77573193863</v>
+        <v>21537.6047999238</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -7650,7 +7647,7 @@
         <v>1103</v>
       </c>
       <c r="E105">
-        <v>20191.66474869247</v>
+        <v>20191.50449992856</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -7664,7 +7661,7 @@
         <v>1104</v>
       </c>
       <c r="E106">
-        <v>4038.332949738494</v>
+        <v>4038.300899985714</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -7678,7 +7675,7 @@
         <v>1105</v>
       </c>
       <c r="E107">
-        <v>67305.54916230823</v>
+        <v>67305.0149997619</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -7692,7 +7689,7 @@
         <v>1106</v>
       </c>
       <c r="E108">
-        <v>14807.22081570781</v>
+        <v>14807.10329994762</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -7706,7 +7703,7 @@
         <v>1107</v>
       </c>
       <c r="E109">
-        <v>30960.55261466179</v>
+        <v>30960.30689989049</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -8339,7 +8336,7 @@
         <v>1886</v>
       </c>
       <c r="E154">
-        <v>3539.39990990991</v>
+        <v>5374.881174496644</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -15368,7 +15365,7 @@
         <v>1886</v>
       </c>
       <c r="E649">
-        <v>4479.555272727272</v>
+        <v>8842.386637168142</v>
       </c>
     </row>
     <row r="650" spans="1:5">
@@ -15410,7 +15407,7 @@
         <v>1369</v>
       </c>
       <c r="E652">
-        <v>99052.51797854506</v>
+        <v>82069.03016746575</v>
       </c>
     </row>
     <row r="653" spans="1:5">
@@ -15424,7 +15421,7 @@
         <v>1366</v>
       </c>
       <c r="E653">
-        <v>11517.70503906558</v>
+        <v>9542.885951832011</v>
       </c>
     </row>
     <row r="654" spans="1:5">
@@ -15437,11 +15434,8 @@
       <c r="C654" t="s">
         <v>1388</v>
       </c>
-      <c r="D654" t="s">
-        <v>1886</v>
-      </c>
       <c r="E654">
-        <v>4479.555272727272</v>
+        <v>13118.76695460927</v>
       </c>
     </row>
     <row r="655" spans="1:5">
@@ -15454,11 +15448,8 @@
       <c r="C655" t="s">
         <v>1389</v>
       </c>
-      <c r="D655" t="s">
-        <v>1886</v>
-      </c>
       <c r="E655">
-        <v>1804.265318181818</v>
+        <v>7532.447549673498</v>
       </c>
     </row>
     <row r="656" spans="1:5">
@@ -15471,11 +15462,8 @@
       <c r="C656" t="s">
         <v>1390</v>
       </c>
-      <c r="D656" t="s">
-        <v>1886</v>
-      </c>
       <c r="E656">
-        <v>1804.265318181818</v>
+        <v>3207.680017117963</v>
       </c>
     </row>
     <row r="657" spans="1:5">
@@ -15489,7 +15477,7 @@
         <v>1367</v>
       </c>
       <c r="E657">
-        <v>1230.64032537382</v>
+        <v>1019.63544238502</v>
       </c>
     </row>
     <row r="658" spans="1:5">
@@ -15503,7 +15491,7 @@
         <v>1371</v>
       </c>
       <c r="E658">
-        <v>56.41781736486018</v>
+        <v>46.74445082054535</v>
       </c>
     </row>
     <row r="659" spans="1:5">
@@ -15517,7 +15505,7 @@
         <v>1372</v>
       </c>
       <c r="E659">
-        <v>1746.941119361901</v>
+        <v>1447.411598933331</v>
       </c>
     </row>
     <row r="660" spans="1:5">
@@ -15531,7 +15519,7 @@
         <v>1363</v>
       </c>
       <c r="E660">
-        <v>2476.92210941058</v>
+        <v>2052.230467919152</v>
       </c>
     </row>
     <row r="661" spans="1:5">
@@ -15545,7 +15533,7 @@
         <v>1364</v>
       </c>
       <c r="E661">
-        <v>7173.709979452814</v>
+        <v>5943.709788820161</v>
       </c>
     </row>
     <row r="662" spans="1:5">
@@ -15559,7 +15547,7 @@
         <v>1377</v>
       </c>
       <c r="E662">
-        <v>901.6634579016966</v>
+        <v>747.0647595598131</v>
       </c>
     </row>
     <row r="663" spans="1:5">
@@ -15573,7 +15561,7 @@
         <v>1373</v>
       </c>
       <c r="E663">
-        <v>1308.073017304153</v>
+        <v>1083.791569454451</v>
       </c>
     </row>
     <row r="664" spans="1:5">
@@ -15587,7 +15575,7 @@
         <v>1359</v>
       </c>
       <c r="E664">
-        <v>13687.24915621953</v>
+        <v>11340.44128140901</v>
       </c>
     </row>
     <row r="665" spans="1:5">
@@ -15601,7 +15589,7 @@
         <v>1391</v>
       </c>
       <c r="E665">
-        <v>7236.14</v>
+        <v>8006.195333584843</v>
       </c>
     </row>
     <row r="666" spans="1:5">
@@ -15615,7 +15603,7 @@
         <v>1392</v>
       </c>
       <c r="E666">
-        <v>7236.14</v>
+        <v>6466.084666415157</v>
       </c>
     </row>
     <row r="667" spans="1:5">
@@ -38199,7 +38187,7 @@
         <v>1886</v>
       </c>
       <c r="E2184">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2185" spans="1:5">
@@ -38216,7 +38204,7 @@
         <v>1886</v>
       </c>
       <c r="E2185">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2186" spans="1:5">
@@ -38233,7 +38221,7 @@
         <v>1886</v>
       </c>
       <c r="E2186">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2187" spans="1:5">
@@ -38250,7 +38238,7 @@
         <v>1886</v>
       </c>
       <c r="E2187">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2188" spans="1:5">
@@ -38267,7 +38255,7 @@
         <v>1886</v>
       </c>
       <c r="E2188">
-        <v>31.56075187969925</v>
+        <v>37.75601058201057</v>
       </c>
     </row>
     <row r="2189" spans="1:5">
@@ -38312,7 +38300,7 @@
         <v>1886</v>
       </c>
       <c r="E2191">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2192" spans="1:5">
@@ -38413,7 +38401,7 @@
         <v>1886</v>
       </c>
       <c r="E2198">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2199" spans="1:5">
@@ -38584,7 +38572,7 @@
         <v>1886</v>
       </c>
       <c r="E2210">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2211" spans="1:5">
@@ -38601,7 +38589,7 @@
         <v>1886</v>
       </c>
       <c r="E2211">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2212" spans="1:5">
@@ -38800,7 +38788,7 @@
         <v>1886</v>
       </c>
       <c r="E2225">
-        <v>31.56075187969925</v>
+        <v>37.75601058201057</v>
       </c>
     </row>
     <row r="2226" spans="1:5">
@@ -38936,7 +38924,7 @@
         <v>1886</v>
       </c>
       <c r="E2233">
-        <v>31.56075187969925</v>
+        <v>37.75601058201057</v>
       </c>
     </row>
     <row r="2234" spans="1:5">
@@ -38953,7 +38941,7 @@
         <v>1886</v>
       </c>
       <c r="E2234">
-        <v>31.56075187969925</v>
+        <v>37.75601058201057</v>
       </c>
     </row>
     <row r="2235" spans="1:5">
@@ -38970,7 +38958,7 @@
         <v>1886</v>
       </c>
       <c r="E2235">
-        <v>31.56075187969925</v>
+        <v>37.75601058201057</v>
       </c>
     </row>
     <row r="2236" spans="1:5">
@@ -38987,7 +38975,7 @@
         <v>1886</v>
       </c>
       <c r="E2236">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2237" spans="1:5">
@@ -39004,7 +38992,7 @@
         <v>1886</v>
       </c>
       <c r="E2237">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2238" spans="1:5">
@@ -39018,7 +39006,7 @@
         <v>1668</v>
       </c>
       <c r="E2238">
-        <v>663.0041125541127</v>
+        <v>662.5943448702102</v>
       </c>
     </row>
     <row r="2239" spans="1:5">
@@ -39032,7 +39020,7 @@
         <v>1669</v>
       </c>
       <c r="E2239">
-        <v>1686.535807050093</v>
+        <v>1685.493448702101</v>
       </c>
     </row>
     <row r="2240" spans="1:5">
@@ -39046,7 +39034,7 @@
         <v>1670</v>
       </c>
       <c r="E2240">
-        <v>1194.629529993816</v>
+        <v>1193.891192830655</v>
       </c>
     </row>
     <row r="2241" spans="1:5">
@@ -39059,11 +39047,8 @@
       <c r="C2241" t="s">
         <v>1671</v>
       </c>
-      <c r="D2241" t="s">
-        <v>1886</v>
-      </c>
       <c r="E2241">
-        <v>73.88085099111414</v>
+        <v>3.053430160692212</v>
       </c>
     </row>
     <row r="2242" spans="1:5">
@@ -39077,7 +39062,7 @@
         <v>1672</v>
       </c>
       <c r="E2242">
-        <v>6336.73055040198</v>
+        <v>6332.81415327565</v>
       </c>
     </row>
     <row r="2243" spans="1:5">
@@ -39090,11 +39075,8 @@
       <c r="C2243" t="s">
         <v>1673</v>
       </c>
-      <c r="D2243" t="s">
-        <v>1886</v>
-      </c>
       <c r="E2243">
-        <v>31.56075187969925</v>
+        <v>3.053430160692212</v>
       </c>
     </row>
     <row r="2244" spans="1:5">
@@ -39324,7 +39306,7 @@
         <v>1886</v>
       </c>
       <c r="E2259">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2260" spans="1:5">
@@ -39383,7 +39365,7 @@
         <v>1886</v>
       </c>
       <c r="E2263">
-        <v>73.64175438596492</v>
+        <v>72.55076543209877</v>
       </c>
     </row>
     <row r="2264" spans="1:5">
@@ -39683,7 +39665,7 @@
         <v>1886</v>
       </c>
       <c r="E2284">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2285" spans="1:5">
@@ -39925,7 +39907,7 @@
         <v>1886</v>
       </c>
       <c r="E2300">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2301" spans="1:5">
@@ -39942,7 +39924,7 @@
         <v>1886</v>
       </c>
       <c r="E2301">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2302" spans="1:5">
@@ -39959,7 +39941,7 @@
         <v>1886</v>
       </c>
       <c r="E2302">
-        <v>31.56075187969925</v>
+        <v>37.75601058201057</v>
       </c>
     </row>
     <row r="2303" spans="1:5">
@@ -39976,7 +39958,7 @@
         <v>1886</v>
       </c>
       <c r="E2303">
-        <v>73.64175438596492</v>
+        <v>72.55076543209877</v>
       </c>
     </row>
     <row r="2304" spans="1:5">
@@ -39993,7 +39975,7 @@
         <v>1886</v>
       </c>
       <c r="E2304">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2305" spans="1:5">
@@ -40010,7 +39992,7 @@
         <v>1886</v>
       </c>
       <c r="E2305">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2306" spans="1:5">
@@ -40069,7 +40051,7 @@
         <v>1886</v>
       </c>
       <c r="E2309">
-        <v>31.56075187969925</v>
+        <v>37.75601058201057</v>
       </c>
     </row>
     <row r="2310" spans="1:5">
@@ -40221,7 +40203,7 @@
         <v>1886</v>
       </c>
       <c r="E2319">
-        <v>73.64175438596492</v>
+        <v>72.55076543209877</v>
       </c>
     </row>
     <row r="2320" spans="1:5">
@@ -40238,7 +40220,7 @@
         <v>1886</v>
       </c>
       <c r="E2320">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2321" spans="1:5">
@@ -40255,7 +40237,7 @@
         <v>1886</v>
       </c>
       <c r="E2321">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2322" spans="1:5">
@@ -40356,7 +40338,7 @@
         <v>1886</v>
       </c>
       <c r="E2328">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2329" spans="1:5">
@@ -40373,7 +40355,7 @@
         <v>1886</v>
       </c>
       <c r="E2329">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2330" spans="1:5">
@@ -40553,7 +40535,7 @@
         <v>1886</v>
       </c>
       <c r="E2341">
-        <v>73.88085099111414</v>
+        <v>76.99264902998236</v>
       </c>
     </row>
     <row r="2342" spans="1:5">
